--- a/papers/coalition-journal-extension/charts/s2_task_qos.xlsx
+++ b/papers/coalition-journal-extension/charts/s2_task_qos.xlsx
@@ -95,154 +95,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.60635428571428573</c:v>
+                  <c:v>0.75635428571428576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60793142857142857</c:v>
+                  <c:v>0.75793142857142859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60959999999999992</c:v>
+                  <c:v>0.75959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61122285714285718</c:v>
+                  <c:v>0.7612228571428572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61295999999999995</c:v>
+                  <c:v>0.76295999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6145828571428571</c:v>
+                  <c:v>0.76458285714285712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61631999999999998</c:v>
+                  <c:v>0.76632</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61796571428571434</c:v>
+                  <c:v>0.76796571428571436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61965714285714291</c:v>
+                  <c:v>0.76965714285714293</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62137142857142857</c:v>
+                  <c:v>0.7713714285714286</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62301714285714282</c:v>
+                  <c:v>0.77301714285714285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.62473142857142849</c:v>
+                  <c:v>0.77473142857142852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.62635428571428564</c:v>
+                  <c:v>0.77635428571428566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6279542857142858</c:v>
+                  <c:v>0.77795428571428582</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62960000000000005</c:v>
+                  <c:v>0.77960000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.63131428571428572</c:v>
+                  <c:v>0.78131428571428574</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.63293714285714286</c:v>
+                  <c:v>0.78293714285714289</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.63433417142857151</c:v>
+                  <c:v>0.78433417142857154</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6357190857142857</c:v>
+                  <c:v>0.78571908571428573</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.63717074285714281</c:v>
+                  <c:v>0.78717074285714284</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.63860571428571433</c:v>
+                  <c:v>0.78860571428571435</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.64005737142857133</c:v>
+                  <c:v>0.79005737142857135</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.64149234285714285</c:v>
+                  <c:v>0.79149234285714287</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64289394285714285</c:v>
+                  <c:v>0.79289394285714287</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.64431222857142856</c:v>
+                  <c:v>0.79431222857142858</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.64574719999999997</c:v>
+                  <c:v>0.79574719999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.64721554285714278</c:v>
+                  <c:v>0.7972155428571428</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.64861714285714278</c:v>
+                  <c:v>0.7986171428571428</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6500354285714286</c:v>
+                  <c:v>0.80003542857142862</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6514537142857143</c:v>
+                  <c:v>0.80145371428571432</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.65288868571428582</c:v>
+                  <c:v>0.80288868571428584</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.65437371428571434</c:v>
+                  <c:v>0.80437371428571436</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.65580868571428563</c:v>
+                  <c:v>0.80580868571428566</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.65724365714285715</c:v>
+                  <c:v>0.80724365714285717</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.65866194285714275</c:v>
+                  <c:v>0.80866194285714277</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.66028045714285721</c:v>
+                  <c:v>0.81028045714285724</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.66196571428571427</c:v>
+                  <c:v>0.81196571428571429</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.66363428571428573</c:v>
+                  <c:v>0.81363428571428575</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.66486400000000001</c:v>
+                  <c:v>0.81486400000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.66600640000000011</c:v>
+                  <c:v>0.81600640000000013</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.66712640000000012</c:v>
+                  <c:v>0.81712640000000014</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.66824639999999991</c:v>
+                  <c:v>0.81824639999999993</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.66934399999999994</c:v>
+                  <c:v>0.81934399999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.6703887999999999</c:v>
+                  <c:v>0.82038879999999992</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.67110445714285716</c:v>
+                  <c:v>0.82110445714285718</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.67182011428571431</c:v>
+                  <c:v>0.82182011428571433</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.67252868571428581</c:v>
+                  <c:v>0.82252868571428583</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.67325142857142861</c:v>
+                  <c:v>0.82325142857142863</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.67376708571428556</c:v>
+                  <c:v>0.82376708571428559</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.67439943314285666</c:v>
+                  <c:v>0.82439943314285669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -262,154 +262,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.53005059523809517</c:v>
+                  <c:v>0.58005059523809499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5301019345238096</c:v>
+                  <c:v>0.58010193452380965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53015624999999988</c:v>
+                  <c:v>0.58015624999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53020907738095246</c:v>
+                  <c:v>0.58020907738095251</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53026562499999996</c:v>
+                  <c:v>0.58026562500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53031845238095232</c:v>
+                  <c:v>0.58031845238095237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53037500000000004</c:v>
+                  <c:v>0.58037500000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53042857142857147</c:v>
+                  <c:v>0.58042857142857152</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53048363095238082</c:v>
+                  <c:v>0.58048363095238087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53053943452380947</c:v>
+                  <c:v>0.58053943452380952</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5305930059523809</c:v>
+                  <c:v>0.58059300595238095</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53064880952380955</c:v>
+                  <c:v>0.58064880952380959</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.53070163690476191</c:v>
+                  <c:v>0.58070163690476195</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.53075372023809519</c:v>
+                  <c:v>0.58075372023809524</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.53080729166666663</c:v>
+                  <c:v>0.58080729166666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.53086309523809527</c:v>
+                  <c:v>0.58086309523809532</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53091592261904763</c:v>
+                  <c:v>0.58091592261904768</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.53097023809523813</c:v>
+                  <c:v>0.58097023809523818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.53103199404761892</c:v>
+                  <c:v>0.58103199404761896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.53109672619047621</c:v>
+                  <c:v>0.58109672619047625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.53116071428571421</c:v>
+                  <c:v>0.58116071428571425</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5312254464285715</c:v>
+                  <c:v>0.58122544642857155</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5312894345238095</c:v>
+                  <c:v>0.58128943452380955</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.53135193452380958</c:v>
+                  <c:v>0.58135193452380962</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5314151785714285</c:v>
+                  <c:v>0.58141517857142855</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.53147916666666672</c:v>
+                  <c:v>0.58147916666666677</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.53154464285714287</c:v>
+                  <c:v>0.58154464285714291</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.53160714285714272</c:v>
+                  <c:v>0.58160714285714277</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.53167038690476187</c:v>
+                  <c:v>0.58167038690476192</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53173363095238102</c:v>
+                  <c:v>0.58173363095238106</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.53179761904761902</c:v>
+                  <c:v>0.58179761904761906</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.53186383928571423</c:v>
+                  <c:v>0.58186383928571428</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.53192782738095223</c:v>
+                  <c:v>0.58192782738095228</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.53199181547619045</c:v>
+                  <c:v>0.5819918154761905</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5320550595238096</c:v>
+                  <c:v>0.58205505952380965</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.53212723214285718</c:v>
+                  <c:v>0.58212723214285722</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.53220238095238104</c:v>
+                  <c:v>0.58220238095238108</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.53227678571428561</c:v>
+                  <c:v>0.58227678571428565</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.53232142857142861</c:v>
+                  <c:v>0.58232142857142866</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.53235937499999997</c:v>
+                  <c:v>0.58235937500000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.53239657738095225</c:v>
+                  <c:v>0.5823965773809523</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.53243377976190476</c:v>
+                  <c:v>0.5824337797619048</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.53247023809523797</c:v>
+                  <c:v>0.58247023809523801</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.53250195312499993</c:v>
+                  <c:v>0.58250195312499997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.53251134672619038</c:v>
+                  <c:v>0.58251134672619043</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.53252074032738084</c:v>
+                  <c:v>0.58252074032738088</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.53253004092261902</c:v>
+                  <c:v>0.58253004092261906</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.53253952752976197</c:v>
+                  <c:v>0.58253952752976201</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.53254892113095242</c:v>
+                  <c:v>0.58254892113095247</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.53255840773809515</c:v>
+                  <c:v>0.5825584077380952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,11 +426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78099584"/>
-        <c:axId val="78101120"/>
+        <c:axId val="106745216"/>
+        <c:axId val="107119744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78099584"/>
+        <c:axId val="106745216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,7 +439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78101120"/>
+        <c:crossAx val="107119744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -447,10 +447,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78101120"/>
+        <c:axId val="107119744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.70000000000000007"/>
+          <c:max val="0.9"/>
           <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -460,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78099584"/>
+        <c:crossAx val="106745216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1347,11 +1347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111744128"/>
-        <c:axId val="111745664"/>
+        <c:axId val="81905536"/>
+        <c:axId val="81907072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111744128"/>
+        <c:axId val="81905536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111745664"/>
+        <c:crossAx val="81907072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1368,7 +1368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111745664"/>
+        <c:axId val="81907072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,14 +1379,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111744128"/>
+        <c:crossAx val="81905536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1765,11 +1764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104506880"/>
-        <c:axId val="104508416"/>
+        <c:axId val="103563264"/>
+        <c:axId val="103564800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104506880"/>
+        <c:axId val="103563264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104508416"/>
+        <c:crossAx val="103564800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1786,7 +1785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104508416"/>
+        <c:axId val="103564800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,14 +1796,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104506880"/>
+        <c:crossAx val="103563264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2209,409 +2207,409 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A50"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.60635428571428573</v>
+        <v>0.75635428571428576</v>
       </c>
       <c r="B1">
-        <v>0.53005059523809517</v>
+        <v>0.58005059523809499</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.60793142857142857</v>
+        <v>0.75793142857142859</v>
       </c>
       <c r="B2">
-        <v>0.5301019345238096</v>
+        <v>0.58010193452380965</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.60959999999999992</v>
+        <v>0.75959999999999994</v>
       </c>
       <c r="B3">
-        <v>0.53015624999999988</v>
+        <v>0.58015624999999993</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.61122285714285718</v>
+        <v>0.7612228571428572</v>
       </c>
       <c r="B4">
-        <v>0.53020907738095246</v>
+        <v>0.58020907738095251</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.61295999999999995</v>
+        <v>0.76295999999999997</v>
       </c>
       <c r="B5">
-        <v>0.53026562499999996</v>
+        <v>0.58026562500000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.6145828571428571</v>
+        <v>0.76458285714285712</v>
       </c>
       <c r="B6">
-        <v>0.53031845238095232</v>
+        <v>0.58031845238095237</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.61631999999999998</v>
+        <v>0.76632</v>
       </c>
       <c r="B7">
-        <v>0.53037500000000004</v>
+        <v>0.58037500000000009</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.61796571428571434</v>
+        <v>0.76796571428571436</v>
       </c>
       <c r="B8">
-        <v>0.53042857142857147</v>
+        <v>0.58042857142857152</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.61965714285714291</v>
+        <v>0.76965714285714293</v>
       </c>
       <c r="B9">
-        <v>0.53048363095238082</v>
+        <v>0.58048363095238087</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.62137142857142857</v>
+        <v>0.7713714285714286</v>
       </c>
       <c r="B10">
-        <v>0.53053943452380947</v>
+        <v>0.58053943452380952</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.62301714285714282</v>
+        <v>0.77301714285714285</v>
       </c>
       <c r="B11">
-        <v>0.5305930059523809</v>
+        <v>0.58059300595238095</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.62473142857142849</v>
+        <v>0.77473142857142852</v>
       </c>
       <c r="B12">
-        <v>0.53064880952380955</v>
+        <v>0.58064880952380959</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.62635428571428564</v>
+        <v>0.77635428571428566</v>
       </c>
       <c r="B13">
-        <v>0.53070163690476191</v>
+        <v>0.58070163690476195</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.6279542857142858</v>
+        <v>0.77795428571428582</v>
       </c>
       <c r="B14">
-        <v>0.53075372023809519</v>
+        <v>0.58075372023809524</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.62960000000000005</v>
+        <v>0.77960000000000007</v>
       </c>
       <c r="B15">
-        <v>0.53080729166666663</v>
+        <v>0.58080729166666667</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.63131428571428572</v>
+        <v>0.78131428571428574</v>
       </c>
       <c r="B16">
-        <v>0.53086309523809527</v>
+        <v>0.58086309523809532</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.63293714285714286</v>
+        <v>0.78293714285714289</v>
       </c>
       <c r="B17">
-        <v>0.53091592261904763</v>
+        <v>0.58091592261904768</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.63433417142857151</v>
+        <v>0.78433417142857154</v>
       </c>
       <c r="B18">
-        <v>0.53097023809523813</v>
+        <v>0.58097023809523818</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.6357190857142857</v>
+        <v>0.78571908571428573</v>
       </c>
       <c r="B19">
-        <v>0.53103199404761892</v>
+        <v>0.58103199404761896</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.63717074285714281</v>
+        <v>0.78717074285714284</v>
       </c>
       <c r="B20">
-        <v>0.53109672619047621</v>
+        <v>0.58109672619047625</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.63860571428571433</v>
+        <v>0.78860571428571435</v>
       </c>
       <c r="B21">
-        <v>0.53116071428571421</v>
+        <v>0.58116071428571425</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.64005737142857133</v>
+        <v>0.79005737142857135</v>
       </c>
       <c r="B22">
-        <v>0.5312254464285715</v>
+        <v>0.58122544642857155</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.64149234285714285</v>
+        <v>0.79149234285714287</v>
       </c>
       <c r="B23">
-        <v>0.5312894345238095</v>
+        <v>0.58128943452380955</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.64289394285714285</v>
+        <v>0.79289394285714287</v>
       </c>
       <c r="B24">
-        <v>0.53135193452380958</v>
+        <v>0.58135193452380962</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.64431222857142856</v>
+        <v>0.79431222857142858</v>
       </c>
       <c r="B25">
-        <v>0.5314151785714285</v>
+        <v>0.58141517857142855</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.64574719999999997</v>
+        <v>0.79574719999999999</v>
       </c>
       <c r="B26">
-        <v>0.53147916666666672</v>
+        <v>0.58147916666666677</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.64721554285714278</v>
+        <v>0.7972155428571428</v>
       </c>
       <c r="B27">
-        <v>0.53154464285714287</v>
+        <v>0.58154464285714291</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.64861714285714278</v>
+        <v>0.7986171428571428</v>
       </c>
       <c r="B28">
-        <v>0.53160714285714272</v>
+        <v>0.58160714285714277</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.6500354285714286</v>
+        <v>0.80003542857142862</v>
       </c>
       <c r="B29">
-        <v>0.53167038690476187</v>
+        <v>0.58167038690476192</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.6514537142857143</v>
+        <v>0.80145371428571432</v>
       </c>
       <c r="B30">
-        <v>0.53173363095238102</v>
+        <v>0.58173363095238106</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.65288868571428582</v>
+        <v>0.80288868571428584</v>
       </c>
       <c r="B31">
-        <v>0.53179761904761902</v>
+        <v>0.58179761904761906</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.65437371428571434</v>
+        <v>0.80437371428571436</v>
       </c>
       <c r="B32">
-        <v>0.53186383928571423</v>
+        <v>0.58186383928571428</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.65580868571428563</v>
+        <v>0.80580868571428566</v>
       </c>
       <c r="B33">
-        <v>0.53192782738095223</v>
+        <v>0.58192782738095228</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.65724365714285715</v>
+        <v>0.80724365714285717</v>
       </c>
       <c r="B34">
-        <v>0.53199181547619045</v>
+        <v>0.5819918154761905</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.65866194285714275</v>
+        <v>0.80866194285714277</v>
       </c>
       <c r="B35">
-        <v>0.5320550595238096</v>
+        <v>0.58205505952380965</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.66028045714285721</v>
+        <v>0.81028045714285724</v>
       </c>
       <c r="B36">
-        <v>0.53212723214285718</v>
+        <v>0.58212723214285722</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.66196571428571427</v>
+        <v>0.81196571428571429</v>
       </c>
       <c r="B37">
-        <v>0.53220238095238104</v>
+        <v>0.58220238095238108</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.66363428571428573</v>
+        <v>0.81363428571428575</v>
       </c>
       <c r="B38">
-        <v>0.53227678571428561</v>
+        <v>0.58227678571428565</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.66486400000000001</v>
+        <v>0.81486400000000003</v>
       </c>
       <c r="B39">
-        <v>0.53232142857142861</v>
+        <v>0.58232142857142866</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.66600640000000011</v>
+        <v>0.81600640000000013</v>
       </c>
       <c r="B40">
-        <v>0.53235937499999997</v>
+        <v>0.58235937500000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.66712640000000012</v>
+        <v>0.81712640000000014</v>
       </c>
       <c r="B41">
-        <v>0.53239657738095225</v>
+        <v>0.5823965773809523</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.66824639999999991</v>
+        <v>0.81824639999999993</v>
       </c>
       <c r="B42">
-        <v>0.53243377976190476</v>
+        <v>0.5824337797619048</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.66934399999999994</v>
+        <v>0.81934399999999996</v>
       </c>
       <c r="B43">
-        <v>0.53247023809523797</v>
+        <v>0.58247023809523801</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.6703887999999999</v>
+        <v>0.82038879999999992</v>
       </c>
       <c r="B44">
-        <v>0.53250195312499993</v>
+        <v>0.58250195312499997</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.67110445714285716</v>
+        <v>0.82110445714285718</v>
       </c>
       <c r="B45">
-        <v>0.53251134672619038</v>
+        <v>0.58251134672619043</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.67182011428571431</v>
+        <v>0.82182011428571433</v>
       </c>
       <c r="B46">
-        <v>0.53252074032738084</v>
+        <v>0.58252074032738088</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.67252868571428581</v>
+        <v>0.82252868571428583</v>
       </c>
       <c r="B47">
-        <v>0.53253004092261902</v>
+        <v>0.58253004092261906</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.67325142857142861</v>
+        <v>0.82325142857142863</v>
       </c>
       <c r="B48">
-        <v>0.53253952752976197</v>
+        <v>0.58253952752976201</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.67376708571428556</v>
+        <v>0.82376708571428559</v>
       </c>
       <c r="B49">
-        <v>0.53254892113095242</v>
+        <v>0.58254892113095247</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.67439943314285666</v>
+        <v>0.82439943314285669</v>
       </c>
       <c r="B50">
-        <v>0.53255840773809515</v>
+        <v>0.5825584077380952</v>
       </c>
     </row>
   </sheetData>
